--- a/InputData/trans/AVL/Avg Vehicle Lifetime_HK.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime_HK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_E5DF8A8C88952E111A1B41954BD648300D5545C6" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{E69FF151-EEF0-4DB5-A2CE-C1727B823973}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_E5DF8A8C88952E111A1B41954BD648300D5545C6" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{C33D403E-D295-44EF-8408-7BE1ED5A85AE}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1830" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1410" windowWidth="20460" windowHeight="11490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="NTS 1-20" sheetId="11" state="hidden" r:id="rId4"/>
     <sheet name="AVL" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>AVL Avg Vehicle Lifetime</t>
   </si>
@@ -395,6 +395,12 @@
   <si>
     <t>Value selected for use in model</t>
     <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>&lt;-Taxi following LDVs</t>
   </si>
 </sst>
 </file>
@@ -1486,30 +1492,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -1525,6 +1507,30 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -2086,7 +2092,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="82" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2107,7 +2113,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
+      <c r="A33" s="80"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
@@ -2136,11 +2142,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A354731F-8216-4F56-B867-434D32C587F2}">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2151,7 +2160,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2433,11 +2442,11 @@
       <c r="A30" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
@@ -2486,7 +2495,7 @@
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="84" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="11"/>
@@ -2498,7 +2507,7 @@
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="11"/>
       <c r="C36" s="22"/>
       <c r="D36" s="11"/>
@@ -3129,62 +3138,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
     </row>
     <row r="2" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -5207,189 +5216,189 @@
       <c r="BB20" s="73"/>
     </row>
     <row r="21" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
     </row>
     <row r="23" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
     </row>
     <row r="24" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
     </row>
     <row r="26" spans="1:54" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
     </row>
     <row r="27" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
     </row>
     <row r="29" spans="1:54" s="77" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
     </row>
     <row r="30" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5446,10 +5455,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,15 +5467,18 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -5474,15 +5486,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="81">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
@@ -5507,12 +5519,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="81">
         <v>7</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5773,22 +5791,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B861BE74-5841-4B9C-BDE0-EB9370691317}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B861BE74-5841-4B9C-BDE0-EB9370691317}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{831A0230-4FAD-4A89-9D23-08827D2944E1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime_HK.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_E5DF8A8C88952E111A1B41954BD648300D5545C6" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{C33D403E-D295-44EF-8408-7BE1ED5A85AE}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_E5DF8A8C88952E111A1B41954BD648300D5545C6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{111011AD-788B-4E57-8017-0116EEFAC4B1}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1410" windowWidth="20460" windowHeight="11490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="NTS 1-20" sheetId="11" state="hidden" r:id="rId4"/>
     <sheet name="AVL" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5458,7 +5458,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="79">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
